--- a/python/lin/pert SD t1=6 t2=5.xlsx
+++ b/python/lin/pert SD t1=6 t2=5.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.13e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.7e-07</t>
+          <t>0.0939</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.0936</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>4.66e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.97e-06</t>
+          <t>0.318</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.78e+00</t>
+          <t>4.85e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.319</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>3.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>2.83e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.93e-06</t>
+          <t>0.189</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.80e+00</t>
+          <t>2.93e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.279</t>
+          <t>0.189</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.67e-11</t>
+          <t>2.51e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.88e-06</t>
+          <t>2.51e-06</t>
         </is>
       </c>
     </row>
